--- a/Employee Data/Medical_Bills.xlsx
+++ b/Employee Data/Medical_Bills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adil/Desktop/Employee Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD60868-2AE8-0444-BCAE-98266FC24B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418A7C4-20BC-471E-A158-FFB2665F2982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="16300" xr2:uid="{66CB86FE-BFDD-7049-97E8-48DD3887B9E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66CB86FE-BFDD-7049-97E8-48DD3887B9E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S.No</t>
   </si>
@@ -65,6 +64,12 @@
   </si>
   <si>
     <t xml:space="preserve">Amount(SAR) </t>
+  </si>
+  <si>
+    <t>Abdullha</t>
+  </si>
+  <si>
+    <t>Fever Medical Bill</t>
   </si>
 </sst>
 </file>
@@ -504,19 +509,19 @@
   <dimension ref="A1:F186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
@@ -526,7 +531,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -546,7 +551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -566,15 +571,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>45782</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3276</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>54</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -582,7 +597,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -590,7 +605,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="3"/>
@@ -598,7 +613,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
@@ -606,7 +621,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -614,7 +629,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -622,7 +637,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -630,7 +645,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -638,7 +653,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -646,7 +661,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -654,7 +669,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -662,7 +677,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="3"/>
@@ -670,7 +685,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -678,7 +693,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
@@ -686,7 +701,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
@@ -694,7 +709,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
@@ -702,7 +717,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
@@ -710,7 +725,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
@@ -718,7 +733,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
@@ -726,7 +741,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
@@ -734,7 +749,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -742,7 +757,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
@@ -750,7 +765,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
@@ -758,7 +773,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
@@ -766,7 +781,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
@@ -774,7 +789,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -782,7 +797,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
@@ -790,7 +805,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
@@ -798,7 +813,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
@@ -806,7 +821,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
@@ -814,7 +829,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
@@ -822,7 +837,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
@@ -830,7 +845,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
@@ -838,7 +853,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
@@ -846,7 +861,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
@@ -854,7 +869,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="3"/>
@@ -862,7 +877,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="3"/>
@@ -870,7 +885,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="3"/>
@@ -878,7 +893,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="3"/>
@@ -886,7 +901,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
@@ -894,7 +909,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="3"/>
@@ -902,7 +917,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="3"/>
@@ -910,7 +925,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="3"/>
@@ -918,7 +933,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="3"/>
@@ -926,7 +941,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="3"/>
@@ -934,7 +949,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="3"/>
@@ -942,7 +957,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="3"/>
@@ -950,7 +965,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="3"/>
@@ -958,7 +973,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -969,11 +984,11 @@
       <c r="D53" s="10"/>
       <c r="E53" s="8">
         <f>SUM(E3:E52)</f>
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -983,7 +998,7 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -993,7 +1008,7 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1003,7 +1018,7 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1013,7 +1028,7 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1023,7 +1038,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1033,7 +1048,7 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1043,7 +1058,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1053,7 +1068,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1063,7 +1078,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1073,7 +1088,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1083,7 +1098,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1093,7 +1108,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1103,7 +1118,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1113,7 +1128,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1123,7 +1138,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1133,7 +1148,7 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1143,7 +1158,7 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1153,7 +1168,7 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1163,7 +1178,7 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1173,7 +1188,7 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1183,7 +1198,7 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1193,7 +1208,7 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1203,7 +1218,7 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1213,7 +1228,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1223,7 +1238,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1233,7 +1248,7 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1243,7 +1258,7 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1253,7 +1268,7 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1263,7 +1278,7 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1273,7 +1288,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1283,7 +1298,7 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1293,7 +1308,7 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1303,7 +1318,7 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1313,7 +1328,7 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1323,7 +1338,7 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1333,7 +1348,7 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1343,7 +1358,7 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1353,7 +1368,7 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1363,7 +1378,7 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1373,7 +1388,7 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1383,7 +1398,7 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1393,7 +1408,7 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1403,7 +1418,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1413,7 +1428,7 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1423,7 +1438,7 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1433,7 +1448,7 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1443,7 +1458,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1453,7 +1468,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1463,7 +1478,7 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1473,7 +1488,7 @@
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1483,7 +1498,7 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1493,7 +1508,7 @@
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1503,7 +1518,7 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1513,7 +1528,7 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1523,7 +1538,7 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1533,7 +1548,7 @@
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1543,7 +1558,7 @@
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1553,7 +1568,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -1563,7 +1578,7 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -1573,7 +1588,7 @@
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -1583,7 +1598,7 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -1593,7 +1608,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -1603,7 +1618,7 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -1613,7 +1628,7 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -1623,7 +1638,7 @@
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -1633,7 +1648,7 @@
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -1643,7 +1658,7 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -1653,7 +1668,7 @@
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -1663,7 +1678,7 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -1673,7 +1688,7 @@
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -1683,7 +1698,7 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -1693,7 +1708,7 @@
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -1703,7 +1718,7 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -1713,7 +1728,7 @@
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -1723,7 +1738,7 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -1733,7 +1748,7 @@
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -1743,7 +1758,7 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -1753,7 +1768,7 @@
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -1763,7 +1778,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -1773,7 +1788,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -1783,7 +1798,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -1793,7 +1808,7 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -1803,7 +1818,7 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -1813,7 +1828,7 @@
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -1823,7 +1838,7 @@
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -1833,7 +1848,7 @@
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -1843,7 +1858,7 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -1853,7 +1868,7 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -1863,7 +1878,7 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -1873,7 +1888,7 @@
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -1883,7 +1898,7 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -1893,7 +1908,7 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -1903,7 +1918,7 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -1913,7 +1928,7 @@
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -1923,7 +1938,7 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -1933,7 +1948,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -1943,7 +1958,7 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -1953,7 +1968,7 @@
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -1963,7 +1978,7 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -1973,7 +1988,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -1983,7 +1998,7 @@
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -1993,7 +2008,7 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -2003,7 +2018,7 @@
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -2013,7 +2028,7 @@
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -2023,7 +2038,7 @@
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -2033,7 +2048,7 @@
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -2043,7 +2058,7 @@
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -2053,7 +2068,7 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -2063,7 +2078,7 @@
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -2073,7 +2088,7 @@
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -2083,7 +2098,7 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -2093,7 +2108,7 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -2103,7 +2118,7 @@
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -2113,7 +2128,7 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -2123,7 +2138,7 @@
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -2133,7 +2148,7 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -2143,7 +2158,7 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -2153,7 +2168,7 @@
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -2163,7 +2178,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -2173,7 +2188,7 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -2183,7 +2198,7 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -2193,7 +2208,7 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -2203,7 +2218,7 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -2213,7 +2228,7 @@
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -2223,7 +2238,7 @@
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -2233,7 +2248,7 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -2243,7 +2258,7 @@
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -2253,7 +2268,7 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -2263,7 +2278,7 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -2273,7 +2288,7 @@
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -2283,7 +2298,7 @@
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -2293,7 +2308,7 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>

--- a/Employee Data/Medical_Bills.xlsx
+++ b/Employee Data/Medical_Bills.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2418A7C4-20BC-471E-A158-FFB2665F2982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A3B06-145B-439A-B785-9C4C1AB7C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66CB86FE-BFDD-7049-97E8-48DD3887B9E1}"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="11616" windowHeight="12060" xr2:uid="{66CB86FE-BFDD-7049-97E8-48DD3887B9E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>S.No</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Fever Medical Bill</t>
+  </si>
+  <si>
+    <t>15-05-2025</t>
+  </si>
+  <si>
+    <t>said dendoum</t>
+  </si>
+  <si>
+    <t>Eye issue</t>
+  </si>
+  <si>
+    <t>21-04-2025</t>
+  </si>
+  <si>
+    <t>Inamul Haq</t>
+  </si>
+  <si>
+    <t>Pain</t>
+  </si>
+  <si>
+    <t>20-05-2025</t>
+  </si>
+  <si>
+    <t>idir aitba</t>
   </si>
 </sst>
 </file>
@@ -508,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C40ACD-FA38-8C4D-ACC4-AB31A0371206}">
   <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -591,27 +615,57 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4495</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>115</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2806</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>106</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4071</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -984,7 +1038,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="8">
         <f>SUM(E3:E52)</f>
-        <v>254</v>
+        <v>613</v>
       </c>
       <c r="F53" s="1"/>
     </row>
